--- a/PythonResources/Data/Consumption/Sympheny/futu_1349_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1349_coo.xlsx
@@ -14287,7 +14287,7 @@
         <v>1743</v>
       </c>
       <c r="B1743">
-        <v>0.6612620459523667</v>
+        <v>0.6612620459523666</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>0.6830841154910905</v>
+        <v>0.6830841154910904</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>6.395953040641334</v>
+        <v>6.395953040641333</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22463,7 +22463,7 @@
         <v>2765</v>
       </c>
       <c r="B2765">
-        <v>0.8080290914035818</v>
+        <v>0.8080290914035817</v>
       </c>
     </row>
     <row r="2766" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>8.008898809017914</v>
+        <v>8.008898809017913</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>3.639238929681122</v>
+        <v>3.639238929681121</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>0.1996408707492244</v>
+        <v>0.1996408707492243</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>5.160570691372165</v>
+        <v>5.160570691372164</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>30.04271217317451</v>
+        <v>30.0427121731745</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>89.23133914121981</v>
+        <v>89.23133914121979</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>0.8219939263957949</v>
+        <v>0.8219939263957948</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>2.623873801266185</v>
+        <v>2.623873801266184</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25391,7 +25391,7 @@
         <v>3131</v>
       </c>
       <c r="B3131">
-        <v>0.6567780590608481</v>
+        <v>0.656778059060848</v>
       </c>
     </row>
     <row r="3132" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>4.92057481781239</v>
+        <v>4.920574817812389</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>7.938151460285065</v>
+        <v>7.938151460285064</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26679,7 +26679,7 @@
         <v>3292</v>
       </c>
       <c r="B3292">
-        <v>7.434362344826212</v>
+        <v>7.434362344826211</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>37.10044892621703</v>
+        <v>37.10044892621702</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27487,7 +27487,7 @@
         <v>3393</v>
       </c>
       <c r="B3393">
-        <v>30.32288808613476</v>
+        <v>30.32288808613475</v>
       </c>
     </row>
     <row r="3394" spans="1:2">
@@ -27663,7 +27663,7 @@
         <v>3415</v>
       </c>
       <c r="B3415">
-        <v>19.8655565917245</v>
+        <v>19.86555659172449</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>73.41077833220307</v>
+        <v>73.41077833220305</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>51.32904785322534</v>
+        <v>51.32904785322533</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>49.6295289000282</v>
+        <v>49.62952890002819</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>23.99466376252806</v>
+        <v>23.99466376252805</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>68.26181325396189</v>
+        <v>68.26181325396188</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>66.91661718650631</v>
+        <v>66.9166171865063</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30231,7 +30231,7 @@
         <v>3736</v>
       </c>
       <c r="B3736">
-        <v>68.04054461977258</v>
+        <v>68.04054461977256</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -30351,7 +30351,7 @@
         <v>3751</v>
       </c>
       <c r="B3751">
-        <v>42.66938480285991</v>
+        <v>42.6693848028599</v>
       </c>
     </row>
     <row r="3752" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>63.64946124750964</v>
+        <v>63.64946124750963</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>42.89358414743584</v>
+        <v>42.89358414743583</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>45.99925794413012</v>
+        <v>45.99925794413011</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30615,7 +30615,7 @@
         <v>3784</v>
       </c>
       <c r="B3784">
-        <v>67.83920481621223</v>
+        <v>67.83920481621222</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>42.5928932617693</v>
+        <v>42.59289326176929</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>55.31334862382633</v>
+        <v>55.31334862382632</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -31383,7 +31383,7 @@
         <v>3880</v>
       </c>
       <c r="B3880">
-        <v>49.74939495484069</v>
+        <v>49.74939495484068</v>
       </c>
     </row>
     <row r="3881" spans="1:2">
@@ -31487,7 +31487,7 @@
         <v>3893</v>
       </c>
       <c r="B3893">
-        <v>44.30530734066754</v>
+        <v>44.30530734066753</v>
       </c>
     </row>
     <row r="3894" spans="1:2">
@@ -31679,7 +31679,7 @@
         <v>3917</v>
       </c>
       <c r="B3917">
-        <v>23.30011470800454</v>
+        <v>23.30011470800453</v>
       </c>
     </row>
     <row r="3918" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>19.5479555071272</v>
+        <v>19.54795550712719</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>3.516061172131758</v>
+        <v>3.516061172131757</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>44.45535971246215</v>
+        <v>44.45535971246214</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>47.10501497299937</v>
+        <v>47.10501497299936</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>59.32343964582952</v>
+        <v>59.32343964582951</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>58.60277796176127</v>
+        <v>58.60277796176126</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>46.63639438217988</v>
+        <v>46.63639438217987</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>47.30635477655972</v>
+        <v>47.30635477655971</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33255,7 +33255,7 @@
         <v>4114</v>
       </c>
       <c r="B4114">
-        <v>37.69391777950625</v>
+        <v>37.69391777950624</v>
       </c>
     </row>
     <row r="4115" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>56.42145022100488</v>
+        <v>56.42145022100487</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33439,7 +33439,7 @@
         <v>4137</v>
       </c>
       <c r="B4137">
-        <v>40.8376908112265</v>
+        <v>40.83769081122649</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>42.51640172067869</v>
+        <v>42.51640172067868</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>53.42597113484727</v>
+        <v>53.42597113484726</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>56.67642202464025</v>
+        <v>56.67642202464024</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>50.4703497099476</v>
+        <v>50.47034970994759</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>53.82572003158134</v>
+        <v>53.82572003158133</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>68.80751152794932</v>
+        <v>68.8075115279493</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>66.4125350000088</v>
+        <v>66.41253500000879</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>61.73101822843247</v>
+        <v>61.73101822843246</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>67.19474160219593</v>
+        <v>67.19474160219592</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34607,7 +34607,7 @@
         <v>4283</v>
       </c>
       <c r="B4283">
-        <v>74.534119623392</v>
+        <v>74.53411962339199</v>
       </c>
     </row>
     <row r="4284" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>61.14487615110978</v>
+        <v>61.14487615110977</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>75.59650213853938</v>
+        <v>75.59650213853936</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>69.50502059996332</v>
+        <v>69.5050205999633</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>49.9123424523364</v>
+        <v>49.91234245233639</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>80.18247775151211</v>
+        <v>80.1824777515121</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>69.6711918788843</v>
+        <v>69.67119187888429</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>76.00181938500802</v>
+        <v>76.00181938500801</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>78.52926402242346</v>
+        <v>78.52926402242345</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>54.45259898327796</v>
+        <v>54.45259898327795</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>55.43087011032953</v>
+        <v>55.43087011032952</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -37055,7 +37055,7 @@
         <v>4589</v>
       </c>
       <c r="B4589">
-        <v>67.10007965670832</v>
+        <v>67.1000796567083</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37255,7 +37255,7 @@
         <v>4614</v>
       </c>
       <c r="B4614">
-        <v>55.4713139136648</v>
+        <v>55.47131391366479</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37263,7 +37263,7 @@
         <v>4615</v>
       </c>
       <c r="B4615">
-        <v>51.14558538302334</v>
+        <v>51.14558538302333</v>
       </c>
     </row>
     <row r="4616" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>53.65984182369902</v>
+        <v>53.65984182369901</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37295,7 +37295,7 @@
         <v>4619</v>
       </c>
       <c r="B4619">
-        <v>52.95178219429321</v>
+        <v>52.9517821942932</v>
       </c>
     </row>
     <row r="4620" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>49.71862249578125</v>
+        <v>49.71862249578124</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>55.41533734528048</v>
+        <v>55.41533734528047</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>72.00989876740184</v>
+        <v>72.00989876740182</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>75.26328036758143</v>
+        <v>75.26328036758142</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>80.86064413497446</v>
+        <v>80.86064413497445</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>79.36510262468562</v>
+        <v>79.3651026246856</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>63.77196494167008</v>
+        <v>63.77196494167007</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>58.10807404850092</v>
+        <v>58.10807404850091</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>60.93855413989219</v>
+        <v>60.93855413989218</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38871,7 +38871,7 @@
         <v>4816</v>
       </c>
       <c r="B4816">
-        <v>58.39586980846636</v>
+        <v>58.39586980846635</v>
       </c>
     </row>
     <row r="4817" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>90.03464685819056</v>
+        <v>90.03464685819054</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>64.2115714996621</v>
+        <v>64.21157149966209</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>66.88144866186695</v>
+        <v>66.88144866186694</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>71.51314335687086</v>
+        <v>71.51314335687084</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39423,7 +39423,7 @@
         <v>4885</v>
       </c>
       <c r="B4885">
-        <v>74.90163070587333</v>
+        <v>74.90163070587332</v>
       </c>
     </row>
     <row r="4886" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>75.01094620329401</v>
+        <v>75.010946203294</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>57.81002080218233</v>
+        <v>57.81002080218232</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39751,7 +39751,7 @@
         <v>4926</v>
       </c>
       <c r="B4926">
-        <v>52.65372894797462</v>
+        <v>52.65372894797461</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>51.14529231198468</v>
+        <v>51.14529231198467</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39831,7 +39831,7 @@
         <v>4936</v>
       </c>
       <c r="B4936">
-        <v>73.89756932741956</v>
+        <v>73.89756932741955</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>71.36221177196026</v>
+        <v>71.36221177196025</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>77.78486358422364</v>
+        <v>77.78486358422363</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>83.272911854196</v>
+        <v>83.27291185419598</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>89.07102928307205</v>
+        <v>89.07102928307204</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>93.82786531158436</v>
+        <v>93.82786531158432</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>91.01555562459008</v>
+        <v>91.01555562459006</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>85.56589966068236</v>
+        <v>85.56589966068235</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>96.8799071082036</v>
+        <v>96.87990710820358</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>81.24954940327807</v>
+        <v>81.24954940327805</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>83.08944938399399</v>
+        <v>83.08944938399398</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>71.1230658044126</v>
+        <v>71.12306580441259</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>25.37927788468358</v>
+        <v>25.37927788468357</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>49.04397296478283</v>
+        <v>49.04397296478282</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42615,7 +42615,7 @@
         <v>5284</v>
       </c>
       <c r="B5284">
-        <v>39.56664171655225</v>
+        <v>39.56664171655224</v>
       </c>
     </row>
     <row r="5285" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>18.58468961725509</v>
+        <v>18.58468961725508</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>40.24392888689862</v>
+        <v>40.24392888689861</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>30.30618303693106</v>
+        <v>30.30618303693105</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>56.43932755436322</v>
+        <v>56.43932755436321</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>52.30731898027691</v>
+        <v>52.3073189802769</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>73.33194222280316</v>
+        <v>73.33194222280315</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>60.70966565869768</v>
+        <v>60.70966565869767</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -43791,7 +43791,7 @@
         <v>5431</v>
       </c>
       <c r="B5431">
-        <v>42.34085216852054</v>
+        <v>42.34085216852053</v>
       </c>
     </row>
     <row r="5432" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>54.18736969328944</v>
+        <v>54.18736969328943</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>53.47403478518773</v>
+        <v>53.47403478518772</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>50.18519158933011</v>
+        <v>50.1851915893301</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>30.6159591247961</v>
+        <v>30.61595912479609</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45511,7 +45511,7 @@
         <v>5646</v>
       </c>
       <c r="B5646">
-        <v>21.64523047399552</v>
+        <v>21.64523047399551</v>
       </c>
     </row>
     <row r="5647" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>31.79176013190542</v>
+        <v>31.79176013190541</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -46303,7 +46303,7 @@
         <v>5745</v>
       </c>
       <c r="B5745">
-        <v>52.64640217200809</v>
+        <v>52.64640217200808</v>
       </c>
     </row>
     <row r="5746" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>48.79662100815266</v>
+        <v>48.79662100815265</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>75.16656692482319</v>
+        <v>75.16656692482317</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>63.16032568398385</v>
+        <v>63.16032568398384</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>9.33422466005225</v>
+        <v>9.334224660052248</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -47639,7 +47639,7 @@
         <v>5912</v>
       </c>
       <c r="B5912">
-        <v>55.35174092989097</v>
+        <v>55.35174092989096</v>
       </c>
     </row>
     <row r="5913" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>74.23137724045483</v>
+        <v>74.23137724045482</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -47799,7 +47799,7 @@
         <v>5932</v>
       </c>
       <c r="B5932">
-        <v>83.59411771256883</v>
+        <v>83.59411771256882</v>
       </c>
     </row>
     <row r="5933" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>34.33356525021527</v>
+        <v>34.33356525021526</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>42.57794663879757</v>
+        <v>42.57794663879756</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>55.51498149842534</v>
+        <v>55.51498149842533</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>43.10752600565862</v>
+        <v>43.10752600565861</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48191,7 +48191,7 @@
         <v>5981</v>
       </c>
       <c r="B5981">
-        <v>69.97920954051737</v>
+        <v>69.97920954051736</v>
       </c>
     </row>
     <row r="5982" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>77.41588714654901</v>
+        <v>77.415887146549</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>73.2657081680657</v>
+        <v>73.26570816806569</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48791,7 +48791,7 @@
         <v>6056</v>
       </c>
       <c r="B6056">
-        <v>43.44924683673775</v>
+        <v>43.44924683673774</v>
       </c>
     </row>
     <row r="6057" spans="1:2">
@@ -48847,7 +48847,7 @@
         <v>6063</v>
       </c>
       <c r="B6063">
-        <v>66.37150505459621</v>
+        <v>66.3715050545962</v>
       </c>
     </row>
     <row r="6064" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>62.52348231697275</v>
+        <v>62.52348231697274</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>39.17685723513266</v>
+        <v>39.17685723513265</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>54.96430101678067</v>
+        <v>54.96430101678066</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>30.15613066513645</v>
+        <v>30.15613066513644</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>55.98858429690207</v>
+        <v>55.98858429690206</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>47.77497536737921</v>
+        <v>47.7749753673792</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>55.11464645961394</v>
+        <v>55.11464645961393</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>27.35750739564767</v>
+        <v>27.35750739564766</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>32.7767718928462</v>
+        <v>32.77677189284619</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>37.22529718868676</v>
+        <v>37.22529718868675</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>42.03517907519676</v>
+        <v>42.03517907519675</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>50.3050576441426</v>
+        <v>50.30505764414259</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>65.83166820138202</v>
+        <v>65.831668201382</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>57.36924196003567</v>
+        <v>57.36924196003566</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>57.58318381825845</v>
+        <v>57.58318381825844</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>61.04054286134634</v>
+        <v>61.04054286134633</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>68.20612975661624</v>
+        <v>68.20612975661622</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>10.48842633161223</v>
+        <v>10.48842633161222</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>3.429751751245992</v>
+        <v>3.429751751245991</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>0.882973217410061</v>
+        <v>0.8829732174100609</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>0.8516380619563899</v>
+        <v>0.8516380619563898</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>6.944757867638569</v>
+        <v>6.944757867638568</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>19.41528224792521</v>
+        <v>19.4152822479252</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>45.79029829356458</v>
+        <v>45.79029829356457</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -52023,7 +52023,7 @@
         <v>6460</v>
       </c>
       <c r="B6460">
-        <v>39.7474665474063</v>
+        <v>39.74746654740629</v>
       </c>
     </row>
     <row r="6461" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>15.81083085053319</v>
+        <v>15.81083085053318</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>30.84250303768132</v>
+        <v>30.84250303768131</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52103,7 +52103,7 @@
         <v>6470</v>
       </c>
       <c r="B6470">
-        <v>46.5877445897621</v>
+        <v>46.58774458976209</v>
       </c>
     </row>
     <row r="6471" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>22.7405834809923</v>
+        <v>22.74058348099229</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52263,7 +52263,7 @@
         <v>6490</v>
       </c>
       <c r="B6490">
-        <v>19.43315958128355</v>
+        <v>19.43315958128354</v>
       </c>
     </row>
     <row r="6491" spans="1:2">
@@ -52287,7 +52287,7 @@
         <v>6493</v>
       </c>
       <c r="B6493">
-        <v>31.86942395715068</v>
+        <v>31.86942395715067</v>
       </c>
     </row>
     <row r="6494" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>37.21005749467637</v>
+        <v>37.21005749467636</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>4.301257098913235</v>
+        <v>4.301257098913234</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>7.688923849007457</v>
+        <v>7.688923849007456</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>15.03603894562419</v>
+        <v>15.03603894562418</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -54335,7 +54335,7 @@
         <v>6749</v>
       </c>
       <c r="B6749">
-        <v>38.8020193766848</v>
+        <v>38.80201937668479</v>
       </c>
     </row>
     <row r="6750" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>2.313690344657404</v>
+        <v>2.313690344657403</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54799,7 +54799,7 @@
         <v>6807</v>
       </c>
       <c r="B6807">
-        <v>0.3642873010560522</v>
+        <v>0.3642873010560521</v>
       </c>
     </row>
     <row r="6808" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>0.6189367265488952</v>
+        <v>0.6189367265488951</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>18.51203730677094</v>
+        <v>18.51203730677093</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>9.069376362413992</v>
+        <v>9.06937636241399</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>0.8709895426391986</v>
+        <v>0.8709895426391985</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>0.7845072098406222</v>
+        <v>0.7845072098406221</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>2.582026187655731</v>
+        <v>2.58202618765573</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
